--- a/STR_Florida_Submarkets_January2017.xlsx
+++ b/STR_Florida_Submarkets_January2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.kirilenko\Dropbox (UFL)\txt\MyPublications\2024\DataMining\Chapter5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52C06FF-5A3F-4B0F-8BAD-4B90324D1EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8FBF89-C792-4CAA-BF9A-B93390FF6941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="1485" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyMeanValues_Jan2017" sheetId="3" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Tarpon Springs/North Shore, FL</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>RoomsOCC</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>CensusRoomCount</t>
+  </si>
+  <si>
+    <t>Submarket</t>
   </si>
 </sst>
 </file>
@@ -542,9 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AD245D-D4D1-4829-BA09-C099744A1A96}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -561,31 +559,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">

--- a/STR_Florida_Submarkets_January2017.xlsx
+++ b/STR_Florida_Submarkets_January2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.kirilenko\Dropbox (UFL)\txt\MyPublications\2024\DataMining\Chapter5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8FBF89-C792-4CAA-BF9A-B93390FF6941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD1DADF-539F-4B93-ADD5-A6E1EEFC2B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="1485" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyMeanValues_Jan2017" sheetId="3" r:id="rId1"/>
@@ -22,150 +22,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
-    <t>Daytona Beach, FL</t>
-  </si>
-  <si>
-    <t>Daytona Area, FL</t>
-  </si>
-  <si>
     <t>Florida Central Area</t>
   </si>
   <si>
-    <t>Fort Pierce/Port St Lucie, FL</t>
-  </si>
-  <si>
-    <t>Gainesville, FL</t>
-  </si>
-  <si>
-    <t>Lakeland/Winter Haven, FL</t>
-  </si>
-  <si>
-    <t>Naples, FL</t>
-  </si>
-  <si>
-    <t>Ocala, FL</t>
-  </si>
-  <si>
-    <t>Key West, FL</t>
-  </si>
-  <si>
     <t>Upper Florida Keys</t>
   </si>
   <si>
     <t>Florida Panhandle Area</t>
   </si>
   <si>
-    <t>Fort Walton Beach, FL</t>
-  </si>
-  <si>
-    <t>Panama City, FL</t>
-  </si>
-  <si>
-    <t>Pensacola, FL</t>
-  </si>
-  <si>
-    <t>Tallahassee, FL</t>
-  </si>
-  <si>
-    <t>Coral Springs/Pompano Beach, FL</t>
-  </si>
-  <si>
-    <t>Fort Lauderdale/Beach, FL</t>
-  </si>
-  <si>
-    <t>Hollywood/Airport, FL</t>
-  </si>
-  <si>
-    <t>West Broward/Plantation, FL</t>
-  </si>
-  <si>
-    <t>Fort Myers Beach/Sanibel Island, FL</t>
-  </si>
-  <si>
-    <t>Fort Myers/Bonita Springs, FL</t>
-  </si>
-  <si>
-    <t>Jacksonville Bay Meadows/Butler Blvd, FL</t>
-  </si>
-  <si>
-    <t>Jacksonville Beaches, FL</t>
-  </si>
-  <si>
-    <t>Jacksonville Other Areas, FL</t>
-  </si>
-  <si>
-    <t>Jacksonville/Airport, FL</t>
-  </si>
-  <si>
-    <t>Melbourne/Palm Bay, FL</t>
-  </si>
-  <si>
-    <t>Titusville/Cocoa Beach, FL</t>
-  </si>
-  <si>
-    <t>Miami Airport/Civic Center, FL</t>
-  </si>
-  <si>
-    <t>Miami Beach, FL</t>
-  </si>
-  <si>
-    <t>Miami CBD/North, FL</t>
-  </si>
-  <si>
-    <t>Miami South, FL</t>
-  </si>
-  <si>
-    <t>Kissimmee East, FL</t>
-  </si>
-  <si>
-    <t>Kissimmee West, FL</t>
-  </si>
-  <si>
-    <t>Lake Buena Vista, FL</t>
-  </si>
-  <si>
-    <t>Orlando Central, FL</t>
-  </si>
-  <si>
-    <t>Orlando International Drive, FL</t>
-  </si>
-  <si>
-    <t>Orlando North, FL</t>
-  </si>
-  <si>
-    <t>Orlando South, FL</t>
-  </si>
-  <si>
-    <t>Boca Raton, FL</t>
-  </si>
-  <si>
-    <t>West Palm Beach, FL</t>
-  </si>
-  <si>
-    <t>Bradenton/Airport, FL</t>
-  </si>
-  <si>
-    <t>Sarasota/Beaches, FL</t>
-  </si>
-  <si>
-    <t>Clearwater, FL</t>
-  </si>
-  <si>
-    <t>St Petersburg, FL</t>
-  </si>
-  <si>
-    <t>Tampa CBD/Airport, FL</t>
-  </si>
-  <si>
-    <t>Tampa East, FL</t>
-  </si>
-  <si>
-    <t>Tampa North/Busch Gardens, FL</t>
-  </si>
-  <si>
-    <t>Tarpon Springs/North Shore, FL</t>
-  </si>
-  <si>
     <t>RoomsOCC</t>
   </si>
   <si>
@@ -191,6 +56,141 @@
   </si>
   <si>
     <t>Submarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca Raton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradenton/Airport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clearwater </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral Springs/Pompano Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daytona Area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daytona Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Lauderdale/Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Myers Beach/Sanibel Is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Myers/Bonita Springs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Pierce/Port St Lucie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Walton Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gainesville </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollywood/Airport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville Bay Meadows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville Beaches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville Other Areas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville/Airport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kissimmee East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kissimmee West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Buena Vista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakeland/Winter Haven </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melbourne/Palm Bay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami Airport/Civic Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami CBD/North </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami South </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naples </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando International Drive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando North </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando South </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensacola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarasota/Beaches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Petersburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tallahassee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa CBD/Airport </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa North/Busch Gardens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarpon Springs/North Shore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titusville/Cocoa Beach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Broward/Plantation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Palm Beach </t>
   </si>
 </sst>
 </file>
@@ -542,11 +542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AD245D-D4D1-4829-BA09-C099744A1A96}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:A49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -559,36 +561,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>73.845139767010153</v>
@@ -617,7 +619,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>73.392482426814965</v>
@@ -646,7 +648,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>69.779782331601169</v>
@@ -704,7 +706,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>58.392798199549887</v>
@@ -733,7 +735,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>58.607027339085313</v>
@@ -762,7 +764,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>65.62959621024136</v>
@@ -791,7 +793,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>50.061338589011342</v>
@@ -820,7 +822,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>79.412271030741678</v>
@@ -907,7 +909,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>69.424086350082575</v>
@@ -936,7 +938,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>36.359739086274338</v>
@@ -965,7 +967,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>65.128257137268847</v>
@@ -994,7 +996,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>81.890677912665467</v>
@@ -1023,7 +1025,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>68.397350056790799</v>
@@ -1052,7 +1054,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>63.510651551015322</v>
@@ -1081,7 +1083,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>65.012800819252433</v>
@@ -1110,7 +1112,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>67.0184240903844</v>
@@ -1139,7 +1141,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>85.095164055826316</v>
@@ -1168,7 +1170,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>66.028024241923902</v>
@@ -1197,7 +1199,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>63.371446990067263</v>
@@ -1226,7 +1228,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>81.785646115670957</v>
@@ -1255,7 +1257,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>61.938001658266813</v>
@@ -1284,7 +1286,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>73.761747523495075</v>
@@ -1313,7 +1315,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>83.022597990597916</v>
@@ -1342,7 +1344,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>74.615648633219465</v>
@@ -1371,7 +1373,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>73.83921885763921</v>
@@ -1400,7 +1402,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>77.0698544508829</v>
@@ -1429,7 +1431,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>68.426052210742824</v>
@@ -1458,7 +1460,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>73.600835224096528</v>
@@ -1487,7 +1489,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>68.267582998144263</v>
@@ -1516,7 +1518,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>73.26932067465026</v>
@@ -1545,7 +1547,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>76.195950388029686</v>
@@ -1574,7 +1576,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>76.817001897533245</v>
@@ -1603,7 +1605,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>41.592920353982308</v>
@@ -1632,7 +1634,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>51.722072240723584</v>
@@ -1661,7 +1663,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>68.078416867024202</v>
@@ -1690,7 +1692,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>70.625365247695314</v>
@@ -1719,7 +1721,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>58.117021625701447</v>
@@ -1748,7 +1750,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>77.931129514544381</v>
@@ -1777,7 +1779,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>75.62171497623288</v>
@@ -1806,7 +1808,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>67.183818912638671</v>
@@ -1835,7 +1837,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>68.637304690956057</v>
@@ -1864,7 +1866,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>64.632287104034077</v>
@@ -1893,7 +1895,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>69.032253530960119</v>
@@ -1922,7 +1924,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>80.825829439210381</v>
@@ -1951,7 +1953,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>78.994097893558589</v>
